--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/107.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/107.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1203773030234623</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.581467654260742</v>
+        <v>-1.707499005467981</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04274094374927612</v>
+        <v>0.1373213990302507</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1018315581644123</v>
+        <v>-0.08222603239969033</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.08482608146907097</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.691639963104531</v>
+        <v>-1.769234218895874</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0130129045702841</v>
+        <v>0.03417484159991478</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.08669669965405276</v>
+        <v>0.003929945396741087</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.05496391689495196</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.792204425486095</v>
+        <v>-2.02681371302185</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03038747685209762</v>
+        <v>0.05201370917463727</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1400672975691293</v>
+        <v>-0.1403753677163111</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03604028508693272</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.979530055597772</v>
+        <v>-2.155013965668134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07901145842363001</v>
+        <v>-0.07656396590314639</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1579543467308518</v>
+        <v>-0.08119377839941787</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.02541900348622901</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.073776889889974</v>
+        <v>-2.260772549133105</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1442478671735216</v>
+        <v>-0.1477442304311273</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1613358181093963</v>
+        <v>-0.01710204735279872</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.01886852413581203</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.973264989239683</v>
+        <v>-2.056118338254478</v>
       </c>
       <c r="F7" t="n">
-        <v>0.25539986828631</v>
+        <v>-0.02242830278843365</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1842717135694811</v>
+        <v>-0.02140480907670666</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.01255797409139707</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.739399596206245</v>
+        <v>-1.747781732296152</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3411280519921051</v>
+        <v>-0.1568067489313976</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.173943333374393</v>
+        <v>-0.02935331088361361</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.0001470280068193615</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.322719391637994</v>
+        <v>-1.386761481049522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3898337962567284</v>
+        <v>0.06849765212099648</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.164251534146941</v>
+        <v>0.01713024018664663</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.0327957510431395</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8318891847248526</v>
+        <v>-1.005153091672988</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3873998960891836</v>
+        <v>0.06833850687908742</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1162159519560448</v>
+        <v>0.04816794250318375</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.1005190000564585</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2295974465036507</v>
+        <v>-0.5086038763877576</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2986216719214801</v>
+        <v>-0.06745472586396702</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0851432084853259</v>
+        <v>0.08508233838562838</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.216847224416223</v>
       </c>
       <c r="E12" t="n">
-        <v>0.474082951246433</v>
+        <v>0.3059846944439327</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09486320054662575</v>
+        <v>-0.3662506475722504</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01509639319601081</v>
+        <v>0.2465665773363123</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.3832018984855574</v>
       </c>
       <c r="E13" t="n">
-        <v>1.156626232784432</v>
+        <v>0.7545844703756305</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.2014813004170219</v>
+        <v>-0.5706865812612865</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1273974521563443</v>
+        <v>0.4517777965616208</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5916221907407441</v>
       </c>
       <c r="E14" t="n">
-        <v>1.91872023455559</v>
+        <v>1.518304965720062</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6049539099549136</v>
+        <v>-1.090976178504692</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2472148386886757</v>
+        <v>0.4512331986237119</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.8265975562887169</v>
       </c>
       <c r="E15" t="n">
-        <v>2.688994885780111</v>
+        <v>2.343089052370567</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.9970936262111719</v>
+        <v>-1.459936171269684</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3966726615145447</v>
+        <v>0.707384035692734</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.068745597333476</v>
       </c>
       <c r="E16" t="n">
-        <v>3.324527538887031</v>
+        <v>3.069143227065736</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.420246223966422</v>
+        <v>-1.848076815804943</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5419474465599603</v>
+        <v>0.9127690006408606</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.303695281435948</v>
       </c>
       <c r="E17" t="n">
-        <v>3.95178317936659</v>
+        <v>3.845812888928437</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.79222121603914</v>
+        <v>-1.989837995119587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6804038070208321</v>
+        <v>1.034348665218919</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.519770116574695</v>
       </c>
       <c r="E18" t="n">
-        <v>4.493538403642535</v>
+        <v>4.400142047363288</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.134829530835367</v>
+        <v>-2.451039446123918</v>
       </c>
       <c r="G18" t="n">
-        <v>0.882236474963778</v>
+        <v>1.254049401698405</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.71309161399353</v>
       </c>
       <c r="E19" t="n">
-        <v>4.930834487254418</v>
+        <v>4.864367257963891</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.515236300633083</v>
+        <v>-2.642223983339866</v>
       </c>
       <c r="G19" t="n">
-        <v>1.053357031314459</v>
+        <v>1.387966472644642</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.882552988100022</v>
       </c>
       <c r="E20" t="n">
-        <v>5.330924165365674</v>
+        <v>5.076865577210924</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.85251251980131</v>
+        <v>-2.873331345529577</v>
       </c>
       <c r="G20" t="n">
-        <v>1.216223935807234</v>
+        <v>1.601866438058948</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.023920875329885</v>
       </c>
       <c r="E21" t="n">
-        <v>5.652674963159225</v>
+        <v>5.529455664575075</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.137151815220143</v>
+        <v>-3.203373756431398</v>
       </c>
       <c r="G21" t="n">
-        <v>1.330590962816203</v>
+        <v>1.797469080797987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.134699113499111</v>
       </c>
       <c r="E22" t="n">
-        <v>5.916241384481972</v>
+        <v>5.917407962906608</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.446811954772878</v>
+        <v>-3.379248959390123</v>
       </c>
       <c r="G22" t="n">
-        <v>1.436469270224629</v>
+        <v>1.865929275732605</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.211663557355199</v>
       </c>
       <c r="E23" t="n">
-        <v>6.034214730275486</v>
+        <v>5.930640378754513</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.668945861395863</v>
+        <v>-3.557609894223621</v>
       </c>
       <c r="G23" t="n">
-        <v>1.542407439604782</v>
+        <v>1.989006949651935</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.25507178366571</v>
       </c>
       <c r="E24" t="n">
-        <v>6.123381327235371</v>
+        <v>6.126681035920824</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.869262999420446</v>
+        <v>-3.71149385283708</v>
       </c>
       <c r="G24" t="n">
-        <v>1.658414100619842</v>
+        <v>2.115733283750447</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.266490273647879</v>
       </c>
       <c r="E25" t="n">
-        <v>6.138911858778367</v>
+        <v>6.012095001698219</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.958591661718422</v>
+        <v>-3.972237271176055</v>
       </c>
       <c r="G25" t="n">
-        <v>1.676593159399747</v>
+        <v>1.98133439693421</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.245975918089303</v>
       </c>
       <c r="E26" t="n">
-        <v>6.044867241146755</v>
+        <v>5.960293955480869</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.037042235715083</v>
+        <v>-3.923754184245295</v>
       </c>
       <c r="G26" t="n">
-        <v>1.685830883670926</v>
+        <v>1.884365302976509</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.195369139953983</v>
       </c>
       <c r="E27" t="n">
-        <v>5.896028478711432</v>
+        <v>5.76462561057774</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.083667411450161</v>
+        <v>-3.875842706142126</v>
       </c>
       <c r="G27" t="n">
-        <v>1.696376811031559</v>
+        <v>1.962105563576943</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.116300452434587</v>
       </c>
       <c r="E28" t="n">
-        <v>5.793536022825823</v>
+        <v>5.878813051671528</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.048580995777534</v>
+        <v>-3.854410660215677</v>
       </c>
       <c r="G28" t="n">
-        <v>1.663032232731386</v>
+        <v>1.875854682654602</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.014411426810705</v>
       </c>
       <c r="E29" t="n">
-        <v>5.529182635582075</v>
+        <v>5.654667928803315</v>
       </c>
       <c r="F29" t="n">
-        <v>-4.028717771524767</v>
+        <v>-3.822172798368413</v>
       </c>
       <c r="G29" t="n">
-        <v>1.607503683737947</v>
+        <v>1.786829710359535</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.895543138153458</v>
       </c>
       <c r="E30" t="n">
-        <v>5.386043900893659</v>
+        <v>5.618336092109143</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.962996626808694</v>
+        <v>-3.930184236037657</v>
       </c>
       <c r="G30" t="n">
-        <v>1.565404657084685</v>
+        <v>1.820390375777162</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.766025353952696</v>
       </c>
       <c r="E31" t="n">
-        <v>5.121408724368367</v>
+        <v>5.344632556891217</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.836517770861591</v>
+        <v>-3.962110377617512</v>
       </c>
       <c r="G31" t="n">
-        <v>1.431074392528721</v>
+        <v>1.596562083344677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.633253163437041</v>
       </c>
       <c r="E32" t="n">
-        <v>4.832920742181899</v>
+        <v>4.988443604777403</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.658697783845775</v>
+        <v>-3.75063482205816</v>
       </c>
       <c r="G32" t="n">
-        <v>1.315513046181389</v>
+        <v>1.56247142047005</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.499917035179962</v>
       </c>
       <c r="E33" t="n">
-        <v>4.52672529674889</v>
+        <v>4.726932931166655</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.45645557241333</v>
+        <v>-3.801778846634601</v>
       </c>
       <c r="G33" t="n">
-        <v>1.243737082032317</v>
+        <v>1.626008333242124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.369356062530431</v>
       </c>
       <c r="E34" t="n">
-        <v>4.159746589243261</v>
+        <v>4.489435668507082</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.288365345875329</v>
+        <v>-3.777695353375062</v>
       </c>
       <c r="G34" t="n">
-        <v>1.148845636507979</v>
+        <v>1.477616345522618</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.242029829732415</v>
       </c>
       <c r="E35" t="n">
-        <v>3.809913226469174</v>
+        <v>4.050736478679836</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.13125030083669</v>
+        <v>-3.766602638004383</v>
       </c>
       <c r="G35" t="n">
-        <v>1.064424195843547</v>
+        <v>1.473974985583892</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.118718665942074</v>
       </c>
       <c r="E36" t="n">
-        <v>3.469222684840356</v>
+        <v>3.844906199063983</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.997804095399771</v>
+        <v>-3.631460586709874</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9395229218586717</v>
+        <v>1.330904873155748</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.00174628875151</v>
       </c>
       <c r="E37" t="n">
-        <v>3.09291280998573</v>
+        <v>3.51052306518789</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.863354106900353</v>
+        <v>-3.564682367175982</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8331700988207003</v>
+        <v>1.270929017677401</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8906172566510563</v>
       </c>
       <c r="E38" t="n">
-        <v>2.744884066652005</v>
+        <v>3.327633061176394</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.725973071858435</v>
+        <v>-3.412329268985842</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7432866182481789</v>
+        <v>1.131327979513256</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.7878005018298505</v>
       </c>
       <c r="E39" t="n">
-        <v>2.405840459269732</v>
+        <v>2.901558907191236</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.616008819867601</v>
+        <v>-3.271148458787334</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6648119534580181</v>
+        <v>1.05655599668164</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6944546518006146</v>
       </c>
       <c r="E40" t="n">
-        <v>2.138112900887895</v>
+        <v>2.516639128744521</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.493334119221361</v>
+        <v>-3.110650482322059</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5627852529134092</v>
+        <v>0.9558856808134855</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.6103541620928015</v>
       </c>
       <c r="E41" t="n">
-        <v>1.899479720813596</v>
+        <v>2.235845599997142</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.401835825460295</v>
+        <v>-3.054021057068074</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4919072183402464</v>
+        <v>0.8239396747899754</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5357412870287162</v>
       </c>
       <c r="E42" t="n">
-        <v>1.616915153731944</v>
+        <v>1.835141241639613</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.313232077039455</v>
+        <v>-2.817648031438501</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4328993747461714</v>
+        <v>0.744021022437906</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4685604286710701</v>
       </c>
       <c r="E43" t="n">
-        <v>1.423940597556542</v>
+        <v>1.731847219352095</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.252540067972517</v>
+        <v>-2.763908041356425</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3498036577482846</v>
+        <v>0.6106908908242146</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4083317566985593</v>
       </c>
       <c r="E44" t="n">
-        <v>1.217202168028143</v>
+        <v>1.461363090174622</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.210675379037846</v>
+        <v>-2.698459925633351</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3107736521821132</v>
+        <v>0.4966056530967906</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3533148291355919</v>
       </c>
       <c r="E45" t="n">
-        <v>1.056080021004004</v>
+        <v>1.291631039558395</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.117333774562007</v>
+        <v>-2.540344017628394</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2211164790636828</v>
+        <v>0.4352690327977162</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3029695895265767</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8678170400179637</v>
+        <v>1.002069922025109</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.072723465192383</v>
+        <v>-2.505517490515949</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2116232463765944</v>
+        <v>0.4826519734919762</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2580502463186435</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6109916607309417</v>
+        <v>0.6291239979719369</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.997468206442676</v>
+        <v>-2.459183594375006</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1683912224047878</v>
+        <v>0.3024265572463882</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.2182917360362839</v>
       </c>
       <c r="E48" t="n">
-        <v>0.4967224569440633</v>
+        <v>0.5370854864172343</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.926051414123968</v>
+        <v>-2.443342072588647</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1151812297797112</v>
+        <v>0.2627263896064898</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1840539672001093</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3416843303147413</v>
+        <v>0.3133710777358398</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.836913288101856</v>
+        <v>-2.394938558278842</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07568546887254</v>
+        <v>0.1632985746636983</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1545157063913538</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2443677449114038</v>
+        <v>0.2264733955092268</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.775509505590599</v>
+        <v>-2.268888226446421</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02929828097627973</v>
+        <v>0.04815334202227466</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1285538953044876</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1246292009759814</v>
+        <v>0.07637023142717618</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.726281064109431</v>
+        <v>-2.241789733879156</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.01756050245334405</v>
+        <v>0.04624943931172972</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1055166700300971</v>
       </c>
       <c r="E52" t="n">
-        <v>0.05291601889481884</v>
+        <v>-0.02888317539834101</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.665137170158356</v>
+        <v>-2.106134475680692</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03469854694443036</v>
+        <v>-0.005142793440165569</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.08411563943441402</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.03007749473670433</v>
+        <v>-0.2956587824249057</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.604511593279554</v>
+        <v>-2.04639222789689</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0910680836382334</v>
+        <v>0.02488747569364455</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.06350092987473398</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06457551102869506</v>
+        <v>-0.1084689367856833</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.586977875755832</v>
+        <v>-2.081193204167744</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1260785768101331</v>
+        <v>-0.13759397610313</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.04288075064241399</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1832409196172996</v>
+        <v>-0.413289016917056</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.590591494780831</v>
+        <v>-2.13307674310223</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1511592829157627</v>
+        <v>-0.1733315732243022</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.02209483929162663</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2428371625920108</v>
+        <v>-0.5357257297244776</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.551319121231569</v>
+        <v>-1.958863804895005</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1937342852466604</v>
+        <v>-0.1425727400931287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.001314993449518203</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.3095642804427202</v>
+        <v>-0.5704617338552865</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.553725280485386</v>
+        <v>-1.954417958458188</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1867348146988441</v>
+        <v>-0.1835154086583904</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.01966666283939027</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3330214130712593</v>
+        <v>-0.6226861940189997</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.566896374313473</v>
+        <v>-1.983702143017543</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2695122412129128</v>
+        <v>-0.2513726037314631</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.0409997653340972</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3944237355344247</v>
+        <v>-0.838888655272669</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.582086714651288</v>
+        <v>-1.913493540494062</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3097497065502656</v>
+        <v>-0.2653219031920048</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.06346811307446537</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.427377020946234</v>
+        <v>-0.7828125882451386</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.606088445217736</v>
+        <v>-1.912572980172744</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3238347904832618</v>
+        <v>-0.2442139879417377</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.08765451288275837</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5028439866691229</v>
+        <v>-0.9536382148814563</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.618682820049914</v>
+        <v>-1.990572399309314</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3829068761933369</v>
+        <v>-0.3878578992696082</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1136144422948397</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6292680908128162</v>
+        <v>-1.093160410448692</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.664120976687084</v>
+        <v>-1.861573500357304</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.40833069360033</v>
+        <v>-0.4048017573646037</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1411726143939535</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7270956930479717</v>
+        <v>-1.13517475431268</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.737091260174519</v>
+        <v>-2.020087271467033</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4304080807829604</v>
+        <v>-0.5183015158075732</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1695402064924779</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8498536164353933</v>
+        <v>-1.227370951061201</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.741344380263336</v>
+        <v>-2.009699029300218</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.4750665717395848</v>
+        <v>-0.5904497922198266</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1985729885184875</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9114778662083768</v>
+        <v>-1.391294930371793</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.7386199305257</v>
+        <v>-1.93148571311833</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4964723368003973</v>
+        <v>-0.633220440994906</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2277687992048379</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9776297251112681</v>
+        <v>-1.607168880805008</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.855098187074123</v>
+        <v>-2.114739999128508</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.5090506511035757</v>
+        <v>-0.6617366402584438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.256943553363345</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.019027928680893</v>
+        <v>-1.658175660860904</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.899689515818566</v>
+        <v>-2.063858783208431</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.5139126112463017</v>
+        <v>-0.6844798093705287</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2861154791967369</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.088768585791238</v>
+        <v>-1.628370239133093</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.957389886347232</v>
+        <v>-2.171626392846493</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5487917000900195</v>
+        <v>-0.6892673070606182</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.3145867561523296</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.09050604301942</v>
+        <v>-1.589719846070558</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.014343442277399</v>
+        <v>-2.238335990120111</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5553779770281088</v>
+        <v>-0.6814648100628021</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.3420602436347979</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.117895085156776</v>
+        <v>-1.728478436486248</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.07608376587361</v>
+        <v>-2.346792742457082</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.563033009168743</v>
+        <v>-0.7102335976460672</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.3676215504657074</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.084705271954239</v>
+        <v>-1.768619538649601</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.129385011504368</v>
+        <v>-2.524049150909808</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.6142091548031838</v>
+        <v>-0.8811044857732031</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.3907398688020576</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.058344103672883</v>
+        <v>-1.803585500354728</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.178512709667264</v>
+        <v>-2.713816711453529</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.6046808809619136</v>
+        <v>-0.7578997876699635</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4106963602617391</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9690899038275431</v>
+        <v>-1.691848749981531</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.177675372087128</v>
+        <v>-2.752905118943337</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.6474953311797204</v>
+        <v>-0.8640569642637531</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4259031923102661</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8973489808326532</v>
+        <v>-1.772617150322509</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.18564066444708</v>
+        <v>-2.852961484589264</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.6455198861127209</v>
+        <v>-0.9000938712435617</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.4360841057314734</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.7306815711592435</v>
+        <v>-1.516866366430396</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.156696671092906</v>
+        <v>-2.823053859495091</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6273247668038167</v>
+        <v>-0.9654091225903623</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.440637256746007</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5915448282880081</v>
+        <v>-1.533427691925573</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.097356666558149</v>
+        <v>-2.68356305496181</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6014059930940054</v>
+        <v>-0.9236210861804643</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4390915084266386</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4228873730666898</v>
+        <v>-1.336562107587899</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.104996368193829</v>
+        <v>-2.698825667680124</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5778977587822846</v>
+        <v>-0.8047541909553145</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4310130225309384</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2668345130141862</v>
+        <v>-1.071196907017152</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.065280140024931</v>
+        <v>-2.667574798342314</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5852330403910098</v>
+        <v>-0.8693846797474789</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4161238434171223</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.06397105111905886</v>
+        <v>-0.8692751761406609</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.035779138324075</v>
+        <v>-2.588867985905699</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5074066369532125</v>
+        <v>-0.7992074682579523</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3949926779892594</v>
       </c>
       <c r="E80" t="n">
-        <v>0.1228406420646182</v>
+        <v>-0.6240206779740903</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.00160452268422</v>
+        <v>-2.579669682932974</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4811666526634014</v>
+        <v>-0.7410975542397862</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3675842330414397</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2993078945242073</v>
+        <v>-0.5242774926436625</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.941735250716509</v>
+        <v>-2.482941496910273</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.386758483057154</v>
+        <v>-0.7094145106670674</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3348028348025268</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5158476268868764</v>
+        <v>-0.2374393647999214</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.879492670577026</v>
+        <v>-2.429992122869423</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3141648919771735</v>
+        <v>-0.6574397187268995</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2973632750515776</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7589719148888111</v>
+        <v>-0.003386355586802403</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.798592865907866</v>
+        <v>-2.348841189928627</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2723272139321847</v>
+        <v>-0.644478871823903</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2566449548708142</v>
       </c>
       <c r="E84" t="n">
-        <v>1.049595947432278</v>
+        <v>0.3529778022979201</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.766227979876693</v>
+        <v>-2.32211865974477</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2228184432175617</v>
+        <v>-0.5887999378770997</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.214554735695114</v>
       </c>
       <c r="E85" t="n">
-        <v>1.235261502864592</v>
+        <v>0.4391381602386242</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.713307076773616</v>
+        <v>-2.076892632515973</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1938963505847512</v>
+        <v>-0.5652727229401969</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1728360692744889</v>
       </c>
       <c r="E86" t="n">
-        <v>1.47345812855971</v>
+        <v>0.7489705854660865</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.646883648925816</v>
+        <v>-2.161868161430905</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1288234672210415</v>
+        <v>-0.453362956868227</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1342836562222068</v>
       </c>
       <c r="E87" t="n">
-        <v>1.691522151129288</v>
+        <v>1.00012659801611</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.576179360075471</v>
+        <v>-2.046590794437254</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05587946459924285</v>
+        <v>-0.4208914873264176</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.100965540120429</v>
       </c>
       <c r="E88" t="n">
-        <v>1.8503520226507</v>
+        <v>1.119787759402714</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.465996830895046</v>
+        <v>-1.816577738291679</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.05349812616297077</v>
+        <v>-0.3629523989348877</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.07415949849211464</v>
       </c>
       <c r="E89" t="n">
-        <v>1.995895456544843</v>
+        <v>1.399413249677366</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.369913986128526</v>
+        <v>-1.731324070215429</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02183013499128173</v>
+        <v>-0.2380803259118303</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.05507389494384014</v>
       </c>
       <c r="E90" t="n">
-        <v>2.116972864579628</v>
+        <v>1.619762247509216</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.188812541028393</v>
+        <v>-1.515248633145669</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07069210440163225</v>
+        <v>-0.1833825442821177</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.04319494555975746</v>
       </c>
       <c r="E91" t="n">
-        <v>2.147971145597711</v>
+        <v>1.64252001710221</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.011895593756804</v>
+        <v>-1.297282433798182</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09190514311444474</v>
+        <v>-0.1025907831716849</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.03809381635732559</v>
       </c>
       <c r="E92" t="n">
-        <v>2.125340400188626</v>
+        <v>1.615411304198308</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.8442981334494857</v>
+        <v>-1.10654175120187</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1084431078401676</v>
+        <v>-0.1220225632135887</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.03914644213628239</v>
       </c>
       <c r="E93" t="n">
-        <v>2.132250807802897</v>
+        <v>1.726421680646279</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6412331849178129</v>
+        <v>-0.837257781555124</v>
       </c>
       <c r="G93" t="n">
-        <v>0.08979683367117257</v>
+        <v>-0.113526543372591</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.04521744262074495</v>
       </c>
       <c r="E94" t="n">
-        <v>2.086774689915364</v>
+        <v>1.689924858517834</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.4820426815179466</v>
+        <v>-0.7667286984756884</v>
       </c>
       <c r="G94" t="n">
-        <v>0.08025979954135695</v>
+        <v>-0.1249338991068607</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.05661598575637753</v>
       </c>
       <c r="E95" t="n">
-        <v>1.999783564610933</v>
+        <v>1.689410921589834</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.2966486950305419</v>
+        <v>-0.5077964697934851</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05008206555036505</v>
+        <v>-0.1078279756737744</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07375846657032493</v>
       </c>
       <c r="E96" t="n">
-        <v>1.868319374457422</v>
+        <v>1.568225469996321</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.1802054796363004</v>
+        <v>-0.2925722407607247</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005242528630468007</v>
+        <v>-0.06096189200369603</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.09570150985104431</v>
       </c>
       <c r="E97" t="n">
-        <v>1.741886510025183</v>
+        <v>1.447759822111626</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.08937442785277931</v>
+        <v>-0.09263617528786934</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01120345306552758</v>
+        <v>-0.1888051628917526</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1214584633038012</v>
       </c>
       <c r="E98" t="n">
-        <v>1.594186585100769</v>
+        <v>1.388090576732369</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.02488556372543299</v>
+        <v>0.06340208428372511</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.03045710724034059</v>
+        <v>-0.1332474129364948</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1480895009254879</v>
       </c>
       <c r="E99" t="n">
-        <v>1.430992629835631</v>
+        <v>1.210696193735053</v>
       </c>
       <c r="F99" t="n">
-        <v>0.02096724656955469</v>
+        <v>0.09317976509780802</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.06070054339542338</v>
+        <v>-0.2186543860622901</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1748214217080949</v>
       </c>
       <c r="E100" t="n">
-        <v>1.30246751648912</v>
+        <v>1.165374840945157</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06666237167072424</v>
+        <v>0.2305878110294075</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.08650835345032554</v>
+        <v>-0.2575033456651887</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1978039692728407</v>
       </c>
       <c r="E101" t="n">
-        <v>1.134959119115347</v>
+        <v>1.030872290714465</v>
       </c>
       <c r="F101" t="n">
-        <v>0.07299314019290436</v>
+        <v>0.2077906201379591</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06364400034669532</v>
+        <v>-0.07426731025614701</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2193278323883951</v>
       </c>
       <c r="E102" t="n">
-        <v>1.019635760606832</v>
+        <v>1.003286142084836</v>
       </c>
       <c r="F102" t="n">
-        <v>0.07539491930244917</v>
+        <v>0.1816323985412388</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1075345060075017</v>
+        <v>-0.2115687726771101</v>
       </c>
     </row>
   </sheetData>
